--- a/biology/Zoologie/Chondrosteidae/Chondrosteidae.xlsx
+++ b/biology/Zoologie/Chondrosteidae/Chondrosteidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chondrosteidae forment une famille fossile de poissons appartenant à l'ordre des Acipenseriformes et à la classe des Actinopterygii.
 </t>
@@ -511,7 +523,9 @@
           <t>Datation et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont vécu au Jurassique inférieur du Sinémurien au Toarcien, soit il y a environ entre 199,5 et 174,7 millions d'années. Leurs fossiles ne sont connus à ce jour qu'au Royaume-Uni.
 </t>
@@ -542,13 +556,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 mars 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 mars 2019) :
 genre Chondrosteus Egerton, 1858 †
 genre Gyrosteus Agassiz, 1837 †
 genre Strongylosteus Jaeckel, 1931 †
-Selon Paleobiology Database                   (14 mars 2019)[2] :
+Selon Paleobiology Database                   (14 mars 2019) :
 genre Chondrosteus
 genre Gyrosteus
 genre Strongylosteus</t>
